--- a/content_extraction/samples/ParkData.xlsx
+++ b/content_extraction/samples/ParkData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin\Desktop\projects\my-app\content_extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin\Desktop\projects\my-app\content_extraction\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A48FBB-A5C6-464E-9673-F19A64EA1D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD29515-D276-4C2E-BABD-8B9D42D2A52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -970,7 +959,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1332,20 +1321,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="170.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="2" max="2" width="45.26953125" customWidth="1"/>
+    <col min="3" max="3" width="170.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1342,7 @@
         <v>552257</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1375,7 +1364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1386,7 +1375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1441,7 +1430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +1452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +1463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1485,7 +1474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1496,7 +1485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1518,7 +1507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1529,7 +1518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1540,7 +1529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1551,7 +1540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1562,7 +1551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1573,7 +1562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1606,7 +1595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +1606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1628,7 +1617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +1628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1650,7 +1639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1661,7 +1650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1672,7 +1661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +1683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +1694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1716,7 +1705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1727,7 +1716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +1727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1760,7 +1749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1771,7 +1760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1782,7 +1771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +1782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +1793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1815,7 +1804,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +1815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1837,7 +1826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1848,7 +1837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -1859,7 +1848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -1870,7 +1859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1881,7 +1870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1903,7 +1892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -1914,7 +1903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -1925,7 +1914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -1936,7 +1925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -1947,7 +1936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -1958,7 +1947,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -1969,7 +1958,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -1980,7 +1969,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +1980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -2002,7 +1991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -2013,7 +2002,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -2024,7 +2013,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -2035,7 +2024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -2046,7 +2035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -2057,7 +2046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -2068,7 +2057,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -2079,7 +2068,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -2090,7 +2079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -2101,7 +2090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -2112,7 +2101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -2123,7 +2112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -2134,7 +2123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -2145,7 +2134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -2156,7 +2145,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -2167,7 +2156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +2178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -2200,7 +2189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -2211,7 +2200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -2222,7 +2211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -2244,7 +2233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -2255,7 +2244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="101.45">
+    <row r="84" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -2266,7 +2255,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -2277,7 +2266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -2288,7 +2277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>130</v>
       </c>
@@ -2299,7 +2288,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -2310,7 +2299,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>136</v>
       </c>
@@ -2321,7 +2310,7 @@
         <v>7380662</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>136</v>
       </c>
@@ -2332,27 +2321,27 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B91" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B92" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B93" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B94" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>144</v>
       </c>
@@ -2360,7 +2349,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B96" s="3" t="s">
         <v>146</v>
       </c>
@@ -2368,7 +2357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B97" s="3" t="s">
         <v>148</v>
       </c>
@@ -2376,7 +2365,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B98" s="3" t="s">
         <v>150</v>
       </c>
@@ -2384,7 +2373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B99" s="3" t="s">
         <v>152</v>
       </c>
@@ -2392,7 +2381,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>154</v>
       </c>
@@ -2400,7 +2389,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B101" s="3" t="s">
         <v>156</v>
       </c>
@@ -2408,7 +2397,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B102" s="3" t="s">
         <v>158</v>
       </c>
@@ -2416,7 +2405,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B103" s="3" t="s">
         <v>160</v>
       </c>
@@ -2424,7 +2413,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B104" s="3" t="s">
         <v>162</v>
       </c>
@@ -2432,7 +2421,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>164</v>
       </c>
@@ -2440,7 +2429,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>166</v>
       </c>
@@ -2448,7 +2437,7 @@
         <v>7260455</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B107" s="3" t="s">
         <v>167</v>
       </c>
@@ -2456,7 +2445,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B108" s="3" t="s">
         <v>169</v>
       </c>
@@ -2464,7 +2453,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B109" s="3" t="s">
         <v>171</v>
       </c>
@@ -2472,7 +2461,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>173</v>
       </c>
@@ -2480,7 +2469,7 @@
         <v>7300363</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B111" s="3" t="s">
         <v>174</v>
       </c>
@@ -2488,7 +2477,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B112" s="3" t="s">
         <v>176</v>
       </c>
@@ -2496,7 +2485,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B113" s="3" t="s">
         <v>178</v>
       </c>
@@ -2504,7 +2493,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>180</v>
       </c>
@@ -2512,7 +2501,7 @@
         <v>7736800</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B115" s="3" t="s">
         <v>181</v>
       </c>
@@ -2520,7 +2509,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B116" s="3" t="s">
         <v>183</v>
       </c>
@@ -2528,7 +2517,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B117" s="3" t="s">
         <v>185</v>
       </c>
@@ -2536,7 +2525,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>187</v>
       </c>
@@ -2544,7 +2533,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B119" s="3" t="s">
         <v>189</v>
       </c>
@@ -2552,7 +2541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B120" s="3" t="s">
         <v>191</v>
       </c>
@@ -2560,7 +2549,7 @@
         <v>7736816</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B121" s="3" t="s">
         <v>192</v>
       </c>
@@ -2568,7 +2557,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>194</v>
       </c>
@@ -2576,7 +2565,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B123" s="3" t="s">
         <v>196</v>
       </c>
@@ -2584,7 +2573,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B124" s="3" t="s">
         <v>198</v>
       </c>
@@ -2592,7 +2581,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B125" s="3" t="s">
         <v>200</v>
       </c>
@@ -2600,7 +2589,7 @@
         <v>7265987</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B126" s="3" t="s">
         <v>201</v>
       </c>
@@ -2608,7 +2597,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>203</v>
       </c>
@@ -2616,7 +2605,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B128" s="3" t="s">
         <v>204</v>
       </c>
@@ -2624,7 +2613,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B129" s="3" t="s">
         <v>206</v>
       </c>
@@ -2632,7 +2621,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B130" s="3" t="s">
         <v>208</v>
       </c>
@@ -2640,7 +2629,7 @@
         <v>7260581</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B131" s="3" t="s">
         <v>209</v>
       </c>
@@ -2648,7 +2637,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>211</v>
       </c>
@@ -2656,7 +2645,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B133" s="3" t="s">
         <v>212</v>
       </c>
@@ -2664,7 +2653,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>214</v>
       </c>
@@ -2672,7 +2661,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B135" s="3" t="s">
         <v>216</v>
       </c>
@@ -2680,7 +2669,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B136" s="3" t="s">
         <v>218</v>
       </c>
@@ -2688,7 +2677,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B137" s="3" t="s">
         <v>220</v>
       </c>
@@ -2696,7 +2685,7 @@
         <v>7736835</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B138" s="3" t="s">
         <v>221</v>
       </c>
@@ -2704,7 +2693,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B139" s="3" t="s">
         <v>222</v>
       </c>
@@ -2712,7 +2701,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B140" s="3" t="s">
         <v>224</v>
       </c>
@@ -2720,7 +2709,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B141" s="3" t="s">
         <v>226</v>
       </c>
@@ -2728,7 +2717,7 @@
         <v>7736898</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B142" s="3" t="s">
         <v>227</v>
       </c>
@@ -2736,7 +2725,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B143" s="3" t="s">
         <v>228</v>
       </c>
@@ -2744,7 +2733,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B144" s="3" t="s">
         <v>230</v>
       </c>
@@ -2752,7 +2741,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B145" s="3" t="s">
         <v>232</v>
       </c>
@@ -2760,7 +2749,7 @@
         <v>7736922</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B146" s="3" t="s">
         <v>233</v>
       </c>
@@ -2768,7 +2757,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>235</v>
       </c>
@@ -2779,7 +2768,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B148" s="3" t="s">
         <v>238</v>
       </c>
@@ -2787,7 +2776,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B149" s="3" t="s">
         <v>240</v>
       </c>
@@ -2795,7 +2784,7 @@
         <v>7843325</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B150" s="3" t="s">
         <v>241</v>
       </c>
@@ -2803,12 +2792,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>214</v>
       </c>
@@ -2816,7 +2805,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B153" s="3" t="s">
         <v>245</v>
       </c>
@@ -2824,7 +2813,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B154" s="3" t="s">
         <v>247</v>
       </c>
@@ -2832,7 +2821,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B155" s="3" t="s">
         <v>249</v>
       </c>
@@ -2840,7 +2829,7 @@
         <v>7350737</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B156" s="3" t="s">
         <v>250</v>
       </c>
@@ -2848,7 +2837,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B157" s="3" t="s">
         <v>252</v>
       </c>
@@ -2856,7 +2845,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B158" s="3" t="s">
         <v>254</v>
       </c>
@@ -2864,7 +2853,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B159" s="3" t="s">
         <v>256</v>
       </c>
@@ -2872,7 +2861,7 @@
         <v>7260549</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B160" s="3" t="s">
         <v>257</v>
       </c>
@@ -2880,7 +2869,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B161" s="3" t="s">
         <v>259</v>
       </c>
@@ -2888,7 +2877,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B162" s="3" t="s">
         <v>261</v>
       </c>
@@ -2896,7 +2885,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B163" s="3" t="s">
         <v>263</v>
       </c>
@@ -2904,7 +2893,7 @@
         <v>7265987</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B164" s="3" t="s">
         <v>264</v>
       </c>
@@ -2912,7 +2901,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>266</v>
       </c>
@@ -2923,7 +2912,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B166" s="3" t="s">
         <v>269</v>
       </c>
@@ -2931,7 +2920,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="106.5">
+    <row r="167" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>271</v>
       </c>
@@ -2939,7 +2928,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>273</v>
       </c>
@@ -2947,7 +2936,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>275</v>
       </c>
@@ -2955,7 +2944,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B170" s="3" t="s">
         <v>277</v>
       </c>
@@ -2963,7 +2952,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B171" s="3" t="s">
         <v>279</v>
       </c>
@@ -2971,7 +2960,7 @@
         <v>7260606</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B172" s="3" t="s">
         <v>280</v>
       </c>
@@ -2979,7 +2968,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>281</v>
       </c>
@@ -2987,7 +2976,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B174" s="3" t="s">
         <v>283</v>
       </c>
@@ -2995,7 +2984,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B175" s="3" t="s">
         <v>285</v>
       </c>
@@ -3003,7 +2992,7 @@
         <v>7480982</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B176" s="3" t="s">
         <v>286</v>
       </c>
@@ -3011,12 +3000,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>289</v>
       </c>
@@ -3027,7 +3016,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B179" s="3" t="s">
         <v>291</v>
       </c>
@@ -3035,7 +3024,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>293</v>
       </c>
@@ -3043,7 +3032,7 @@
         <v>7748911</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>294</v>
       </c>
@@ -3051,7 +3040,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>296</v>
       </c>
@@ -3062,7 +3051,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B183" s="3" t="s">
         <v>269</v>
       </c>
@@ -3070,15 +3059,6 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15"/>
-    <row r="185" spans="1:3" ht="15"/>
-    <row r="186" spans="1:3" ht="15"/>
-    <row r="187" spans="1:3" ht="15"/>
-    <row r="188" spans="1:3" ht="15"/>
-    <row r="190" spans="1:3" ht="15"/>
-    <row r="191" spans="1:3" ht="15"/>
-    <row r="192" spans="1:3" ht="15"/>
-    <row r="193" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/content_extraction/samples/ParkData.xlsx
+++ b/content_extraction/samples/ParkData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin\Desktop\projects\my-app\content_extraction\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ni20273792/Desktop/projects/content-mig/content_extraction/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD29515-D276-4C2E-BABD-8B9D42D2A52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E857D859-7823-2B49-AF00-D6CAD7F16851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="304">
   <si>
     <t>Park Id</t>
   </si>
@@ -466,52 +477,52 @@
     <t>ParkHomeMainVisualComponent</t>
   </si>
   <si>
-    <t>mainimagecontentid</t>
-  </si>
-  <si>
-    <t>mainimagealttext</t>
+    <t>MainImageContentHubId</t>
+  </si>
+  <si>
+    <t>MainImageAltText</t>
   </si>
   <si>
     <t>Bude pool filled with sea water</t>
   </si>
   <si>
-    <t>mdmparklogocontenthubid</t>
-  </si>
-  <si>
-    <t>mdmparklogoalttext</t>
-  </si>
-  <si>
-    <t>petsbasedonSearchFacets</t>
-  </si>
-  <si>
-    <t>touristtaxvalue</t>
+    <t>MdmParkLogoContentHubId</t>
+  </si>
+  <si>
+    <t>MdmParkLogoAltText</t>
+  </si>
+  <si>
+    <t>PetsBasedOnSearchFacets</t>
+  </si>
+  <si>
+    <t>TouristTaxvalue</t>
   </si>
   <si>
     <t>Qulaifiers</t>
   </si>
   <si>
-    <t>qualifierlist_array</t>
-  </si>
-  <si>
-    <t>qualifierlist_qualifiername_1</t>
+    <t>QualifierList_Array</t>
+  </si>
+  <si>
+    <t>QualifierList_qualifierName_1</t>
   </si>
   <si>
     <t>Qulaifier  name1</t>
   </si>
   <si>
-    <t>qualifierlist_qualifiertitle_1</t>
+    <t>QualifierList_qualifierTitle_1</t>
   </si>
   <si>
     <t>Qulaifier  title1</t>
   </si>
   <si>
-    <t>qualifierlist_qualifiername_2</t>
+    <t>QualifierList_qualifierName_2</t>
   </si>
   <si>
     <t>Qulaifier  name2</t>
   </si>
   <si>
-    <t>qualifierlist_qualifiertitle_2</t>
+    <t>QualifierList_qualifierTitle_2</t>
   </si>
   <si>
     <t>Qulaifier  title2</t>
@@ -520,28 +531,28 @@
     <t>Differentiator</t>
   </si>
   <si>
-    <t>differentiatorlist_array</t>
-  </si>
-  <si>
-    <t>differentiatorlist_differentiatorname_1</t>
+    <t>DifferentiatorList_Array</t>
+  </si>
+  <si>
+    <t>DifferentiatorList_DifferentiatorName_1</t>
   </si>
   <si>
     <t>differentiatorname1</t>
   </si>
   <si>
-    <t>differentiatorlist_differentiatortitle_1</t>
+    <t>DifferentiatorList_Title_1</t>
   </si>
   <si>
     <t>differentiatortitle1</t>
   </si>
   <si>
-    <t>differentiatorlist_differentiatorname_2</t>
+    <t>DifferentiatorList_DifferentiatorName_2</t>
   </si>
   <si>
     <t>differentiatorname2</t>
   </si>
   <si>
-    <t>differentiatorlist_differentiatortitle_2</t>
+    <t>DifferentiatorList_Title_2</t>
   </si>
   <si>
     <t>differentiatortitle2</t>
@@ -550,67 +561,67 @@
     <t>ParkHomeVisualUSPComponent</t>
   </si>
   <si>
-    <t>usplist_array</t>
-  </si>
-  <si>
-    <t>usplist_imagecontentid_1</t>
-  </si>
-  <si>
-    <t>usplist_imagealttext_1</t>
+    <t>UspList_Array</t>
+  </si>
+  <si>
+    <t>UspList_ImageContentHubId_1</t>
+  </si>
+  <si>
+    <t>UspList_ImageAltText_1</t>
   </si>
   <si>
     <t>Bude area beach</t>
   </si>
   <si>
-    <t>usplist_title_1</t>
+    <t>UspList_Title_1</t>
   </si>
   <si>
     <t>Natuurlijke schoonheid van Cornwall</t>
   </si>
   <si>
-    <t>usplist_text_1</t>
+    <t>UspList_Text_1</t>
   </si>
   <si>
     <t>Landal Bude Coastal Resort ligt in Noord-Cornwall en is een uitstekende uitvalsbasis voor het verkennen van prachtige stranden, surfplekken en schilderachtige wandelingen langs de kustlijn van Cornwall. Naast de stranden heeft Bude ook een aantal andere attracties, zoals het Bude Canal, Boscastle en Tintagel Castle.</t>
   </si>
   <si>
-    <t>usplist_imagecontentid_2</t>
-  </si>
-  <si>
-    <t>usplist_imagealttext_2</t>
+    <t>UspList_ImageContentHubId_2</t>
+  </si>
+  <si>
+    <t>UspList_ImageAltText_2</t>
   </si>
   <si>
     <t>BTT 4C2 Summerleaze Garden Cottage 2</t>
   </si>
   <si>
-    <t>usplist_title_2</t>
+    <t>UspList_Title_2</t>
   </si>
   <si>
     <t>Luxe accommodatie in een rustige omgeving</t>
   </si>
   <si>
-    <t>usplist_text_2</t>
+    <t>UspList_Text_2</t>
   </si>
   <si>
     <t>Landal Bude Coastal Resort ligt in Bude, Cornwall, en biedt een scala aan luxe accommodaties met een fantastische moderne inrichting en een mooie aankleding. Het resort ligt op een prachtige locatie met uitzicht op de kust, en is slechts een korte wandeling van het strand en lokale attracties.</t>
   </si>
   <si>
-    <t>usplist_imagecontentid_3</t>
-  </si>
-  <si>
-    <t>usplist_imagealttext_3</t>
+    <t>UspList_ImageContentHubId_3</t>
+  </si>
+  <si>
+    <t>UspList_ImageAltText_3</t>
   </si>
   <si>
     <t>Surfers Paradise</t>
   </si>
   <si>
-    <t>usplist_title_3</t>
+    <t>UspList_Title_3</t>
   </si>
   <si>
     <t>Surfers paradijs</t>
   </si>
   <si>
-    <t>usplist_text_3</t>
+    <t>UspList_Text_3</t>
   </si>
   <si>
     <t>Noord-Cornwall is een populaire bestemming om te surfen, met enkele van de beste surfspots in het Verenigd Koninkrijk langs de kust. De combinatie van de Atlantische Oceaan en de ruige kustlijn van Noord-Cornwall creëert ideale omstandigheden om te surfen. Crooklets Beach, Widemouth Bay en Trebarwith Strand liggen allemaal op korte rijafstand van het resort.</t>
@@ -619,79 +630,79 @@
     <t>ParkHomeMagazineComponent</t>
   </si>
   <si>
-    <t>magazines_array</t>
-  </si>
-  <si>
-    <t>magazines_title_1</t>
+    <t>Magazines_Array</t>
+  </si>
+  <si>
+    <t>Magazines_Title_1</t>
   </si>
   <si>
     <t>Omgeving</t>
   </si>
   <si>
-    <t>magazines_imagecontentid_1</t>
-  </si>
-  <si>
-    <t>magazines_imagealtext_1</t>
+    <t>Magazines_ImageContentHubId_1</t>
+  </si>
+  <si>
+    <t>Magazines_ImageAltText_1</t>
   </si>
   <si>
     <t>Clovelly Harbour</t>
   </si>
   <si>
-    <t>magazines_link_1</t>
+    <t>Magazines_Link_1</t>
   </si>
   <si>
     <t>op-en-rond-het-park</t>
   </si>
   <si>
-    <t>magazines_text_1</t>
+    <t>Magazines_Text_1</t>
   </si>
   <si>
     <t>Landal Bude Coastal Resort is an excellent base for discovering some of the most beautiful parts of Cornwall. From here, you can visit popular tourist attractions, such as Bude town centre and sea pool, Summerleaze Beach, Tintagel Castle and the village of Boscastle.</t>
   </si>
   <si>
-    <t>magazines_title_2</t>
+    <t>Magazines_Title_2</t>
   </si>
   <si>
     <t>Spa and wellness</t>
   </si>
   <si>
-    <t>magazines_imagecontentid_2</t>
-  </si>
-  <si>
-    <t>magazines_imagealttext_2</t>
+    <t>Magazines_ImageContentHubId_2</t>
+  </si>
+  <si>
+    <t>Magazines_ImageAltText_2</t>
   </si>
   <si>
     <t>Body massage and spa treatment in modern salon with candles.</t>
   </si>
   <si>
-    <t>magazines_link_2</t>
-  </si>
-  <si>
-    <t>magazines_text_2</t>
+    <t>Magazines_Link_2</t>
+  </si>
+  <si>
+    <t>Magazines_Text_2</t>
   </si>
   <si>
     <t>Landal Bude Coastal Resort offers a range of spa and wellness facilities that are designed to help guests unwind and improve their overall health and well-being. This includes treatment rooms offering facials and body wraps, a sauna to reduce stress and increase circulation, and a gym room with all the equipment you need for an away-from-home workout.</t>
   </si>
   <si>
-    <t>magazines_title_3</t>
+    <t>Magazines_Title_3</t>
   </si>
   <si>
     <t>Facilities</t>
   </si>
   <si>
-    <t>magazines_imagecontentid_3</t>
-  </si>
-  <si>
-    <t>magazines_imagealttext_3</t>
+    <t>Magazines_ImageContentHubId_3</t>
+  </si>
+  <si>
+    <t>Magazines_ImageAltText_3</t>
   </si>
   <si>
     <t>BTT Swimming Pool</t>
   </si>
   <si>
-    <t>magazines_link_3</t>
-  </si>
-  <si>
-    <t>magazines_text_3</t>
+    <t>Magazines_Link_3</t>
+  </si>
+  <si>
+    <t>Magazines_Text_3</t>
   </si>
   <si>
     <t>The resort's laid-back atmosphere and luxury facilities cater to a variety of interests and preferences. Guests can visit the putting green or mini golf course while soaking up the sunshine, or take a refreshing swim in the indoor pool. For those looking for a more indulgent experience, the resort's spa treatment rooms offer a range of treatments that can help guests relax, unwind and rejuvenate.</t>
@@ -700,61 +711,61 @@
     <t>ParkHomeImageAccordionComponent</t>
   </si>
   <si>
-    <t>accordionlist_array</t>
-  </si>
-  <si>
-    <t>accordionlist_title_1</t>
+    <t>AccordionList_Array</t>
+  </si>
+  <si>
+    <t>AccordionList_Title_1</t>
   </si>
   <si>
     <t>Boscastle</t>
   </si>
   <si>
-    <t>accordionlist_text_1</t>
+    <t>AccordionList_Text_1</t>
   </si>
   <si>
     <t>Boscastle is een charmant dorpje gelegen op korte rijafstand van Bude. Ontdek de pittoreske havenstad en maak een wandeling langs de kust.</t>
   </si>
   <si>
-    <t>accordionlist_imagecontentid_1</t>
-  </si>
-  <si>
-    <t>accordionlist_imagealttext_1</t>
-  </si>
-  <si>
-    <t>accordionList_title_2</t>
+    <t>AccordionList_ImageContentHubId_1</t>
+  </si>
+  <si>
+    <t>AccordionList_ImageAltText_1</t>
+  </si>
+  <si>
+    <t>AccordionList_Title_2</t>
   </si>
   <si>
     <t>Summerleaze Beach</t>
   </si>
   <si>
-    <t>accordionlist_text_2</t>
+    <t>AccordionList_Text_2</t>
   </si>
   <si>
     <t>Summerleaze Beach is een prachtig zandstrand gelegen in het centrum van Bude. Het is een geweldige plek om te zwemmen, surfen en rockpoolen.</t>
   </si>
   <si>
-    <t>accordionlist_imagecontentid_2</t>
-  </si>
-  <si>
-    <t>accordionlist_imagealttext_2</t>
-  </si>
-  <si>
-    <t>accordionlist_title_3</t>
+    <t>AccordionList_ImageContentHubId_2</t>
+  </si>
+  <si>
+    <t>AccordionList_ImageAltText_2</t>
+  </si>
+  <si>
+    <t>AccordionList_Title_3</t>
   </si>
   <si>
     <t xml:space="preserve">Clovelly </t>
   </si>
   <si>
-    <t>accordionlist_text_3</t>
+    <t>AccordionList_Text_3</t>
   </si>
   <si>
     <t>Clovelly is een prachtig vissersdorp, doordrenkt van maritieme sfeer en geschiedenis. Maak een wandeling door schilderachtige straatjes die hun natuurlijke schoonheid uitstralen.</t>
   </si>
   <si>
-    <t>accordionlist_imagecontentid_3</t>
-  </si>
-  <si>
-    <t>accordionlist_imagealttext_3</t>
+    <t>AccordionList_ImageContentHubId_3</t>
+  </si>
+  <si>
+    <t>AccordionList_ImageAltText_3</t>
   </si>
   <si>
     <t>Clovelly Streets</t>
@@ -763,22 +774,22 @@
     <t>ParkHomeDescriptionPanelComponent</t>
   </si>
   <si>
-    <t>title</t>
+    <t>ParkHomeDescriptionPanelComponent_Title</t>
   </si>
   <si>
     <t>Welkom op Landal Bude Coastal Resort</t>
   </si>
   <si>
-    <t>text</t>
+    <t>ParkHomeDescriptionPanelComponent_Text</t>
   </si>
   <si>
     <t>Landal Bude Coastal Resort ligt op 45 hectare landbouwgrond en op korte loopafstand van de zandstranden van Bude. Met de prachtige kustlijn van Cornwall en het dramatische landschap van Devon voor de deur, biedt dit resort beide werelden. Kies voor een verblijf in luxe cottages met super stijlvolle, op maat gemaakte interieurs met uitzicht op het aangelegde landschap, perfect om de rustige sfeer op te snuiven. Voor een compleet unieke ervaring kun je ook kiezen voor een verblijf in de prachtige Glasshouse.</t>
   </si>
   <si>
-    <t>imagecontentid</t>
-  </si>
-  <si>
-    <t>imagealttext</t>
+    <t>ParkHomeDescriptionPanelComponent_ImageContentHubId</t>
+  </si>
+  <si>
+    <t>ParkHomeDescriptionPanelComponent_ImageAltText</t>
   </si>
   <si>
     <t>BTT Sennen (Pet) 6C4</t>
@@ -787,67 +798,67 @@
     <t>InAroundPark</t>
   </si>
   <si>
-    <t>InAroundParkAccordionList_array</t>
-  </si>
-  <si>
-    <t>InAroundParkAccordionList_title_1</t>
+    <t>InAndAroundAccordionList_Array</t>
+  </si>
+  <si>
+    <t>InAndAroundAccordionList_Title_1</t>
   </si>
   <si>
     <t>Zwemmen en wellness</t>
   </si>
   <si>
-    <t>InAroundParkAccordionList_Text_1</t>
+    <t>InAndAroundAccordionList_Text_1</t>
   </si>
   <si>
     <t>Koel af van de avonturen van de dag met een verfrissende duik in het verwarmde binnenzwembad. Daarna kun je ontspannen in de sauna of het stoombad om volledig tot rust te komen.</t>
   </si>
   <si>
-    <t>InAroundParkAccordionList_ImageContentid_1</t>
-  </si>
-  <si>
-    <t>InAroundParkAccordionList_ImageAltText_1</t>
+    <t>InAndAroundAccordionList_ImageContentHubId_1</t>
+  </si>
+  <si>
+    <t>InAndAroundAccordionList_ImageAltText_1</t>
   </si>
   <si>
     <t>BTT Swimming pool</t>
   </si>
   <si>
-    <t>InAroundParkAccordionList_Title_2</t>
+    <t>InAndAroundAccordionList_Title_2</t>
   </si>
   <si>
     <t>Een plek van rust</t>
   </si>
   <si>
-    <t>InAroundParkAccordionList_Text_2</t>
+    <t>InAndAroundAccordionList_Text_2</t>
   </si>
   <si>
     <t>Het resort beschikt over een relaxte omgeving en een brede lijst van voorzieningen waar je van kunt genieten van een rustig toevluchtsoord.</t>
   </si>
   <si>
-    <t>InAroundParkAccordionList_ImageContentid_2</t>
-  </si>
-  <si>
-    <t>InAroundParkAccordionList_ImageAltText_2</t>
+    <t>InAndAroundAccordionList_ImageContentHubId_2</t>
+  </si>
+  <si>
+    <t>InAndAroundAccordionList_ImageAltText_2</t>
   </si>
   <si>
     <t>BTT Restaurant</t>
   </si>
   <si>
-    <t>InAroundParkAccordionList_Title_3</t>
+    <t>InAndAroundAccordionList_Title_3</t>
   </si>
   <si>
     <t>Beauty &amp; Wellness</t>
   </si>
   <si>
-    <t>InAroundParkAccordionList_Text_3</t>
+    <t>InAndAroundAccordionList_Text_3</t>
   </si>
   <si>
     <t>Geniet van de ultieme wellnesservaring door gebruik te maken van de sauna en het stoombad. Behandelingen zoals massages en gezichtsbehandelingen zijn ook te boeken in de spa.</t>
   </si>
   <si>
-    <t>InAroundParkAccordionList_ImageContentid_3</t>
-  </si>
-  <si>
-    <t>InAroundParkAccordionList_ImageAltText_3</t>
+    <t>InAndAroundAccordionList_ImageContentHubId_3</t>
+  </si>
+  <si>
+    <t>InAndAroundAccordionList_ImageAltText_3</t>
   </si>
   <si>
     <t>Body massage and spa treatment in modern salon</t>
@@ -856,19 +867,19 @@
     <t>IntroductionComponent</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>IntroductionComponent_Title</t>
   </si>
   <si>
     <t>Op en rond het park</t>
   </si>
   <si>
-    <t>Text</t>
+    <t>IntroductionComponent_Text</t>
   </si>
   <si>
     <t>Landal Bude Coastal Resort biedt voor ieder wat wils: een hapje eten in het restaurant, even spelen in de speeltuin of aan je conditie werken in de fitnessruimte. Een paar baantjes trekken kan in ons binnenzwembad en even helemaal ontspannen doe je tijdens een spabehandeling in een van de behandelkamers: de keuze is aan jou.</t>
   </si>
   <si>
-    <t>SecondColumnText</t>
+    <t>IntroductionComponent_SecondColumnText</t>
   </si>
   <si>
     <t>&lt;ul&gt;
@@ -883,43 +894,43 @@
     <t>ContentBlockComponent</t>
   </si>
   <si>
-    <t>contentblock_array</t>
-  </si>
-  <si>
-    <t>contentblock_Title_1</t>
+    <t>ContentBlocks_Array</t>
+  </si>
+  <si>
+    <t>ContentBlocks_Title_1</t>
   </si>
   <si>
     <t>Koffiebar</t>
   </si>
   <si>
-    <t>contentblock_Text_1</t>
+    <t>ContentBlocks_Text_1</t>
   </si>
   <si>
     <t>Geniet van een vers gebrande koffie, thee of warme chocolademelk terwijl je onze heerlijke snacks, pizza&amp;rsquo;s en gebak proeft.</t>
   </si>
   <si>
-    <t>contentblock_ImageContentid_1</t>
-  </si>
-  <si>
-    <t>contentblock_ImageAltText_1</t>
-  </si>
-  <si>
-    <t>contentblock_Title_2</t>
+    <t>ContentBlocks_ImageContentHubId_1</t>
+  </si>
+  <si>
+    <t>ContentBlocks_ImageAltText_1</t>
+  </si>
+  <si>
+    <t>ContentBlocks_Title_2</t>
   </si>
   <si>
     <t>Speeltuin</t>
   </si>
   <si>
-    <t>contentblock_Text_2</t>
+    <t>ContentBlocks_Text_2</t>
   </si>
   <si>
     <t>Geniet van deze gezellige speeltuin op steenworp afstand van de koffiebar. Geniet hier van een koud drankje terwijl de kinderen zich uitleven.</t>
   </si>
   <si>
-    <t>contentblock_ImageContentid_2</t>
-  </si>
-  <si>
-    <t>contentblock_ImageAltText_2</t>
+    <t>ContentBlocks_ImageContentHubId_2</t>
+  </si>
+  <si>
+    <t>ContentBlocks_ImageAltText_2</t>
   </si>
   <si>
     <t>BTT playground</t>
@@ -931,19 +942,22 @@
     <t>SurroundingMainVisualWithOfferLabel</t>
   </si>
   <si>
+    <t>SurroundingMainVisualWithOfferLabel_Title</t>
+  </si>
+  <si>
     <t>De kust van Cornwall</t>
   </si>
   <si>
-    <t>SubTitle</t>
+    <t>SurroundingMainVisualWithOfferLabel_SubTitle</t>
   </si>
   <si>
     <t>Gouden stranden en schilderachtige kustdorpen</t>
   </si>
   <si>
-    <t>MainVisualImageContentid</t>
-  </si>
-  <si>
-    <t>MainVisualAltText</t>
+    <t>SurroundingMainVisualWithOfferLabel_MainVisualImageContentHubId</t>
+  </si>
+  <si>
+    <t>SurroundingMainVisualWithOfferLabel_MainVisualAltText</t>
   </si>
   <si>
     <t>Panorama Overlooking Bude breakwater Cornwall England UK</t>
@@ -952,14 +966,29 @@
     <t>SurroundingIntroContentBlockComponent</t>
   </si>
   <si>
+    <t>SurroundingIntroContentBlockComponent_Title</t>
+  </si>
+  <si>
+    <t>SurroundingIntroContentBlockComponent_Text</t>
+  </si>
+  <si>
     <t>De kust van Cornwall is de perfecte bestemming voor een strandvakantie. Met vrienden of familie. Hier is de keuze enorm. Van surfen tot wandelen en shoppen in de dorpjes. Neem het adembenemende landschap tot je tijdens een fietstocht of relax op het strand.</t>
+  </si>
+  <si>
+    <t>AlwaysAllowPets</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>nl-NL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -971,6 +1000,11 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
+      <name val="IBMPlexMono"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1000,13 +1034,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,9 +1060,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1065,7 +1100,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1171,7 +1206,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1313,7 +1348,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1321,20 +1356,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="B77" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="2" max="2" width="45.26953125" customWidth="1"/>
-    <col min="3" max="3" width="170.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="3" max="3" width="170.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1377,7 @@
         <v>552257</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1353,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1375,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1386,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1441,7 +1476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +1498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +1509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1485,7 +1520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1496,7 +1531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1507,7 +1542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1518,7 +1553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1529,7 +1564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1540,7 +1575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +1586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1562,7 +1597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1606,7 +1641,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +1652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1628,7 +1663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +1674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1650,7 +1685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1661,7 +1696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1672,7 +1707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +1729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +1740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1716,7 +1751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1727,7 +1762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +1773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1749,7 +1784,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1760,7 +1795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1771,7 +1806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1782,7 +1817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +1828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1804,7 +1839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1837,7 +1872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -1848,7 +1883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -1859,7 +1894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1870,7 +1905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -1881,7 +1916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -1903,7 +1938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -1914,7 +1949,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -1925,7 +1960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -1936,7 +1971,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -1947,7 +1982,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -1958,7 +1993,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -1969,7 +2004,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +2015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +2026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -2002,7 +2037,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -2013,7 +2048,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -2024,7 +2059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -2046,7 +2081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -2057,7 +2092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -2068,7 +2103,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -2079,7 +2114,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -2090,7 +2125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -2101,7 +2136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -2112,7 +2147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -2123,7 +2158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -2134,7 +2169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -2145,7 +2180,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -2156,7 +2191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -2167,7 +2202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +2224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -2211,7 +2246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -2222,7 +2257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -2244,7 +2279,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" ht="112">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -2255,7 +2290,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -2266,7 +2301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -2277,7 +2312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>130</v>
       </c>
@@ -2288,7 +2323,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -2299,764 +2334,781 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="3">
-        <v>7380662</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
+      <c r="B89" t="s">
+        <v>302</v>
+      </c>
+      <c r="C89" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="3">
+        <v>7380662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="1:3">
+      <c r="B92" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B92" s="3" t="s">
+    <row r="93" spans="1:3">
+      <c r="B93" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B93" s="3" t="s">
+    <row r="94" spans="1:3">
+      <c r="B94" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B94" s="3" t="s">
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>144</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B96" s="3" t="s">
+    <row r="98" spans="1:3">
+      <c r="B98" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C98" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B97" s="3" t="s">
+    <row r="99" spans="1:3">
+      <c r="B99" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B98" s="3" t="s">
+    <row r="100" spans="1:3">
+      <c r="B100" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B99" s="3" t="s">
+    <row r="101" spans="1:3">
+      <c r="B101" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>154</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B101" s="3" t="s">
+    <row r="103" spans="1:3">
+      <c r="B103" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B102" s="3" t="s">
+    <row r="104" spans="1:3">
+      <c r="B104" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B103" s="3" t="s">
+    <row r="105" spans="1:3">
+      <c r="B105" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B104" s="3" t="s">
+    <row r="106" spans="1:3">
+      <c r="B106" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>164</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B106" t="s">
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
         <v>166</v>
       </c>
-      <c r="C106">
+      <c r="C108">
         <v>7260455</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B107" s="3" t="s">
+    <row r="109" spans="1:3">
+      <c r="B109" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B108" s="3" t="s">
+    <row r="110" spans="1:3">
+      <c r="B110" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B109" s="3" t="s">
+    <row r="111" spans="1:3">
+      <c r="B111" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
+    <row r="112" spans="1:3">
+      <c r="B112" t="s">
         <v>173</v>
       </c>
-      <c r="C110">
+      <c r="C112">
         <v>7300363</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B111" s="3" t="s">
+    <row r="113" spans="1:3">
+      <c r="B113" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B112" s="3" t="s">
+    <row r="114" spans="1:3">
+      <c r="B114" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B113" s="3" t="s">
+    <row r="115" spans="1:3">
+      <c r="B115" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B114" t="s">
+    <row r="116" spans="1:3">
+      <c r="B116" t="s">
         <v>180</v>
       </c>
-      <c r="C114">
+      <c r="C116">
         <v>7736800</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B115" s="3" t="s">
+    <row r="117" spans="1:3">
+      <c r="B117" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B116" s="3" t="s">
+    <row r="118" spans="1:3">
+      <c r="B118" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B117" s="3" t="s">
+    <row r="119" spans="1:3">
+      <c r="B119" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B119" s="3" t="s">
+    <row r="121" spans="1:3">
+      <c r="B121" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C121" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B120" s="3" t="s">
+    <row r="122" spans="1:3">
+      <c r="B122" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C120">
+      <c r="C122">
         <v>7736816</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B121" s="3" t="s">
+    <row r="123" spans="1:3">
+      <c r="B123" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C123" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B122" t="s">
+    <row r="124" spans="1:3">
+      <c r="B124" t="s">
         <v>194</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B123" s="3" t="s">
+    <row r="125" spans="1:3">
+      <c r="B125" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B124" s="3" t="s">
+    <row r="126" spans="1:3">
+      <c r="B126" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C126" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B125" s="3" t="s">
+    <row r="127" spans="1:3">
+      <c r="B127" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C125">
+      <c r="C127">
         <v>7265987</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B126" s="3" t="s">
+    <row r="128" spans="1:3">
+      <c r="B128" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C128" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B127" t="s">
+    <row r="129" spans="1:3">
+      <c r="B129" t="s">
         <v>203</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C129" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B128" s="3" t="s">
+    <row r="130" spans="1:3">
+      <c r="B130" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B129" s="3" t="s">
+    <row r="131" spans="1:3">
+      <c r="B131" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C131" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B130" s="3" t="s">
+    <row r="132" spans="1:3">
+      <c r="B132" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C130">
+      <c r="C132">
         <v>7260581</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B131" s="3" t="s">
+    <row r="133" spans="1:3">
+      <c r="B133" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C133" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B132" t="s">
+    <row r="134" spans="1:3">
+      <c r="B134" t="s">
         <v>211</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C134" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B133" s="3" t="s">
+    <row r="135" spans="1:3">
+      <c r="B135" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B135" s="3" t="s">
+    <row r="137" spans="1:3">
+      <c r="B137" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B136" s="3" t="s">
+    <row r="138" spans="1:3">
+      <c r="B138" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B137" s="3" t="s">
+    <row r="139" spans="1:3">
+      <c r="B139" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C139" s="3">
         <v>7736835</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B138" s="3" t="s">
+    <row r="140" spans="1:3">
+      <c r="B140" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B139" s="3" t="s">
+    <row r="141" spans="1:3">
+      <c r="B141" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B140" s="3" t="s">
+    <row r="142" spans="1:3">
+      <c r="B142" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B141" s="3" t="s">
+    <row r="143" spans="1:3">
+      <c r="B143" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C141">
+      <c r="C143">
         <v>7736898</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B142" s="3" t="s">
+    <row r="144" spans="1:3">
+      <c r="B144" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C144" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B143" s="3" t="s">
+    <row r="145" spans="1:3">
+      <c r="B145" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C145" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B144" s="3" t="s">
+    <row r="146" spans="1:3">
+      <c r="B146" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B145" s="3" t="s">
+    <row r="147" spans="1:3">
+      <c r="B147" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C145">
+      <c r="C147">
         <v>7736922</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B146" s="3" t="s">
+    <row r="148" spans="1:3">
+      <c r="B148" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="3" t="s">
+    <row r="149" spans="1:3">
+      <c r="A149" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B148" s="3" t="s">
+    <row r="150" spans="1:3">
+      <c r="B150" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C150" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B149" s="3" t="s">
+    <row r="151" spans="1:3">
+      <c r="B151" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C151" s="3">
         <v>7843325</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B150" s="3" t="s">
+    <row r="152" spans="1:3">
+      <c r="B152" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="3" t="s">
+    <row r="153" spans="1:3">
+      <c r="A153" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="3" t="s">
+    <row r="154" spans="1:3">
+      <c r="A154" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B154" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B153" s="3" t="s">
+    <row r="155" spans="1:3">
+      <c r="B155" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B154" s="3" t="s">
+    <row r="156" spans="1:3">
+      <c r="B156" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B155" s="3" t="s">
+    <row r="157" spans="1:3">
+      <c r="B157" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C157" s="3">
         <v>7350737</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B156" s="3" t="s">
+    <row r="158" spans="1:3">
+      <c r="B158" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C158" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B157" s="3" t="s">
+    <row r="159" spans="1:3">
+      <c r="B159" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B158" s="3" t="s">
+    <row r="160" spans="1:3">
+      <c r="B160" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B159" s="3" t="s">
+    <row r="161" spans="1:3">
+      <c r="B161" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C159">
+      <c r="C161">
         <v>7260549</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B160" s="3" t="s">
+    <row r="162" spans="1:3">
+      <c r="B162" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C162" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B161" s="3" t="s">
+    <row r="163" spans="1:3">
+      <c r="B163" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C163" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B162" s="3" t="s">
+    <row r="164" spans="1:3">
+      <c r="B164" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C164" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B163" s="3" t="s">
+    <row r="165" spans="1:3">
+      <c r="B165" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C163">
+      <c r="C165">
         <v>7265987</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B164" s="3" t="s">
+    <row r="166" spans="1:3">
+      <c r="B166" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="3" t="s">
+    <row r="167" spans="1:3">
+      <c r="A167" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B167" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C167" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B166" s="3" t="s">
+    <row r="168" spans="1:3">
+      <c r="B168" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C168" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B167" t="s">
+    <row r="169" spans="1:3" ht="112">
+      <c r="B169" t="s">
         <v>271</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="3" t="s">
+    <row r="170" spans="1:3">
+      <c r="A170" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B170" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B169" t="s">
+    <row r="171" spans="1:3">
+      <c r="B171" t="s">
         <v>275</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B170" s="3" t="s">
+    <row r="172" spans="1:3">
+      <c r="B172" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C172" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B171" s="3" t="s">
+    <row r="173" spans="1:3">
+      <c r="B173" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C173" s="3">
         <v>7260606</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B172" s="3" t="s">
+    <row r="174" spans="1:3">
+      <c r="B174" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C174" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B173" t="s">
+    <row r="175" spans="1:3">
+      <c r="B175" t="s">
         <v>281</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C175" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B174" s="3" t="s">
+    <row r="176" spans="1:3">
+      <c r="B176" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C176" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B175" s="3" t="s">
+    <row r="177" spans="1:3">
+      <c r="B177" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C175">
+      <c r="C177">
         <v>7480982</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B176" s="3" t="s">
+    <row r="178" spans="1:3">
+      <c r="B178" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C178" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
         <v>289</v>
       </c>
-      <c r="B178" t="s">
-        <v>267</v>
-      </c>
-      <c r="C178" s="3" t="s">
+      <c r="B180" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B179" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C179" s="3" t="s">
+    </row>
+    <row r="181" spans="1:3">
+      <c r="B181" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B180" t="s">
+      <c r="C181" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C180" s="3">
+    </row>
+    <row r="182" spans="1:3">
+      <c r="B182" t="s">
+        <v>294</v>
+      </c>
+      <c r="C182" s="3">
         <v>7748911</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B181" t="s">
-        <v>294</v>
-      </c>
-      <c r="C181" s="3" t="s">
+    <row r="183" spans="1:3">
+      <c r="B183" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="3" t="s">
+      <c r="C183" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B182" t="s">
-        <v>267</v>
-      </c>
-      <c r="C182" s="3" t="s">
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B184" t="s">
+        <v>298</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B183" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>297</v>
+    <row r="185" spans="1:3">
+      <c r="B185" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
